--- a/комплектация домов для сайта.xlsx
+++ b/комплектация домов для сайта.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Кирпич плоская" sheetId="10" r:id="rId9"/>
     <sheet name="Каркас плоская" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -519,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +535,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -614,6 +626,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3620,7 +3636,7 @@
   <dimension ref="B5:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,167 +3647,167 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>118</v>
+      <c r="D6" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3799,60 +3815,60 @@
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3860,37 +3876,37 @@
       <c r="C28" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>124</v>
       </c>
     </row>
